--- a/lunch_report_202505.xlsx
+++ b/lunch_report_202505.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="日別注文" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025年5月ランチ注文" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,34 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +67,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,336 +455,380 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>コード</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>氏名</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>1日</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2日</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>3日</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>4日</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>5日</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>6日</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>7日</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>8日</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>9日</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>10日</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>11日</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>12日</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>13日</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>14日</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>15日</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>16日</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>17日</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>18日</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>19日</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>20日</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>21日</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>22日</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>23日</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>24日</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>25日</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>26日</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>27日</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>28日</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>29日</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>30日</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31日</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>注文数</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>合計金額</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>補助額</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>上限</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>会社負担</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>超過</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>実費</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>460</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3780</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>840</v>
-      </c>
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr"/>
+      <c r="AI2" s="2" t="inlineStr"/>
+      <c r="AJ2" s="2" t="inlineStr"/>
+      <c r="AK2" s="2" t="inlineStr"/>
+      <c r="AL2" s="2" t="inlineStr"/>
+      <c r="AM2" s="2" t="inlineStr"/>
+      <c r="AN2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>合計</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -760,10 +837,10 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
@@ -781,10 +858,10 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
@@ -802,10 +879,10 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
@@ -823,10 +900,10 @@
       <c r="Y3" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
@@ -844,7 +921,7 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
@@ -994,263 +1071,170 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>合計</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="5" t="n">
         <v>1300</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="5" t="n">
         <v>460</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="5" t="n">
         <v>3780</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="5" t="n">
         <v>460</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
+      <c r="AM5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="5" t="n">
         <v>840</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>≪ベンダー集計≫</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>ベジタブルディッシュ17</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>2</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>1300</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>やまじん</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
       <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>かあちゃんの台所</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
       <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/lunch_report_202505.xlsx
+++ b/lunch_report_202505.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -67,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -78,8 +80,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -814,12 +821,12 @@
           <t>土</t>
         </is>
       </c>
-      <c r="AH2" s="2" t="inlineStr"/>
-      <c r="AI2" s="2" t="inlineStr"/>
-      <c r="AJ2" s="2" t="inlineStr"/>
-      <c r="AK2" s="2" t="inlineStr"/>
-      <c r="AL2" s="2" t="inlineStr"/>
-      <c r="AM2" s="2" t="inlineStr"/>
+      <c r="AH2" s="4" t="inlineStr"/>
+      <c r="AI2" s="4" t="inlineStr"/>
+      <c r="AJ2" s="4" t="inlineStr"/>
+      <c r="AK2" s="4" t="inlineStr"/>
+      <c r="AL2" s="4" t="inlineStr"/>
+      <c r="AM2" s="4" t="inlineStr"/>
       <c r="AN2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -837,10 +844,10 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
@@ -858,10 +865,10 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
@@ -879,10 +886,10 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
+      <c r="S3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
@@ -900,10 +907,10 @@
       <c r="Y3" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
@@ -921,29 +928,29 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
-      <c r="AG3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AG3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AI3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AI3" s="6" t="n">
+        <v>860</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
         <v>460</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="6" t="n">
         <v>3780</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="6" t="n">
         <v>460</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>840</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -1071,129 +1078,129 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr"/>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr"/>
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>合計</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="C5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="n">
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5" t="n">
+      <c r="Q5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AI5" s="5" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AJ5" s="5" t="n">
+      <c r="AI5" s="8" t="n">
+        <v>860</v>
+      </c>
+      <c r="AJ5" s="8" t="n">
         <v>460</v>
       </c>
-      <c r="AK5" s="5" t="n">
+      <c r="AK5" s="8" t="n">
         <v>3780</v>
       </c>
-      <c r="AL5" s="5" t="n">
+      <c r="AL5" s="8" t="n">
         <v>460</v>
       </c>
-      <c r="AM5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="5" t="n">
-        <v>840</v>
+      <c r="AM5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>≪ベンダー集計≫</t>
         </is>
